--- a/image/observation.xlsx
+++ b/image/observation.xlsx
@@ -1437,47 +1437,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.92578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.6015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="65.69140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="66.26953125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="61.72265625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.921875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="39.421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="60.515625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="50.89453125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="245.77734375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="239.703125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="102.734375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="38.60546875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="103.87890625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="37.70703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/observation.xlsx
+++ b/image/observation.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="408">
   <si>
     <t>Path</t>
   </si>
@@ -187,7 +187,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -1005,10 +1005,6 @@
   </si>
   <si>
     <t>Observation.referenceRange.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -1194,7 +1190,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|Observation|MolecularSequence)
+    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|QuestionnaireResponse|Observation|MolecularSequence)
 </t>
   </si>
   <si>
@@ -1437,47 +1433,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.6015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="42.92578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="66.26953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="65.69140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="60.515625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.89453125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="61.72265625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="50.921875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="39.421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="239.703125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="245.77734375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="103.87890625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="37.70703125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="102.734375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="38.60546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5164,13 +5160,13 @@
         <v>45</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5221,7 +5217,7 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -5245,7 +5241,7 @@
         <v>45</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
@@ -5256,7 +5252,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5285,7 +5281,7 @@
         <v>101</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>103</v>
@@ -5338,7 +5334,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5362,7 +5358,7 @@
         <v>45</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
@@ -5373,11 +5369,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5399,10 +5395,10 @@
         <v>100</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>103</v>
@@ -5457,7 +5453,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5492,7 +5488,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5515,13 +5511,13 @@
         <v>45</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5572,7 +5568,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5581,22 +5577,22 @@
         <v>55</v>
       </c>
       <c r="AH35" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="AI35" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
@@ -5607,7 +5603,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5630,13 +5626,13 @@
         <v>45</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5687,7 +5683,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5696,22 +5692,22 @@
         <v>55</v>
       </c>
       <c r="AH36" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="AI36" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>336</v>
-      </c>
       <c r="AM36" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
@@ -5722,7 +5718,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5748,16 +5744,16 @@
         <v>151</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>45</v>
@@ -5785,11 +5781,11 @@
         <v>78</v>
       </c>
       <c r="X37" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="Y37" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="Y37" t="s" s="2">
-        <v>348</v>
-      </c>
       <c r="Z37" t="s" s="2">
         <v>45</v>
       </c>
@@ -5806,7 +5802,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -5824,10 +5820,10 @@
         <v>45</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>261</v>
@@ -5841,7 +5837,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5867,16 +5863,16 @@
         <v>151</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>45</v>
@@ -5904,11 +5900,11 @@
         <v>166</v>
       </c>
       <c r="X38" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="Y38" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="Y38" t="s" s="2">
-        <v>357</v>
-      </c>
       <c r="Z38" t="s" s="2">
         <v>45</v>
       </c>
@@ -5925,7 +5921,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -5943,10 +5939,10 @@
         <v>45</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>261</v>
@@ -5960,7 +5956,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5983,17 +5979,17 @@
         <v>45</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
@@ -6042,7 +6038,7 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6066,7 +6062,7 @@
         <v>45</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
@@ -6077,7 +6073,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6100,13 +6096,13 @@
         <v>45</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>318</v>
+        <v>57</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6157,7 +6153,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6178,10 +6174,10 @@
         <v>45</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
@@ -6192,7 +6188,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6215,16 +6211,16 @@
         <v>56</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6274,7 +6270,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6295,10 +6291,10 @@
         <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
@@ -6309,7 +6305,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6332,16 +6328,16 @@
         <v>56</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6391,7 +6387,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6412,10 +6408,10 @@
         <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
@@ -6426,7 +6422,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6452,16 +6448,16 @@
         <v>309</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>45</v>
@@ -6510,7 +6506,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6522,19 +6518,19 @@
         <v>45</v>
       </c>
       <c r="AI43" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="AJ43" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -6545,7 +6541,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6568,13 +6564,13 @@
         <v>45</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6625,7 +6621,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -6649,7 +6645,7 @@
         <v>45</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -6660,7 +6656,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6689,7 +6685,7 @@
         <v>101</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>103</v>
@@ -6742,7 +6738,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -6766,7 +6762,7 @@
         <v>45</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -6777,11 +6773,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6803,10 +6799,10 @@
         <v>100</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>103</v>
@@ -6861,7 +6857,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -6896,7 +6892,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6922,13 +6918,13 @@
         <v>151</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>165</v>
@@ -6980,7 +6976,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>55</v>
@@ -6998,7 +6994,7 @@
         <v>45</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>171</v>
@@ -7015,7 +7011,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7041,13 +7037,13 @@
         <v>231</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L48" t="s" s="2">
         <v>233</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>235</v>
@@ -7099,7 +7095,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7117,7 +7113,7 @@
         <v>45</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>238</v>
@@ -7134,7 +7130,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7160,13 +7156,13 @@
         <v>151</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>245</v>
@@ -7218,7 +7214,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7253,7 +7249,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7337,7 +7333,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7372,7 +7368,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7398,10 +7394,10 @@
         <v>45</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>312</v>
@@ -7456,7 +7452,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
